--- a/만남일정.xlsx
+++ b/만남일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Documents\GitHub\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,7 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +555,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E12:H14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -801,16 +810,16 @@
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="5"/>
@@ -834,17 +843,17 @@
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -870,17 +879,17 @@
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="5"/>
@@ -904,11 +913,11 @@
       <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -928,11 +937,11 @@
       <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -952,7 +961,7 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
@@ -984,7 +993,7 @@
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1025,7 @@
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1048,7 +1057,7 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1074,7 +1083,7 @@
       <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1100,7 +1109,7 @@
       <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1124,7 +1133,7 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
